--- a/A2/Report/prediction .xlsx
+++ b/A2/Report/prediction .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/93bdcf1d317cb3a6/UON/EBUS3030/EBUS3030/A2/Report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{17DE6D2F-3F87-4459-B16F-E53571B6EFFB}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="8_{17DE6D2F-3F87-4459-B16F-E53571B6EFFB}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{A314441E-F8B1-42CE-92F3-0E3DB6A1BD2D}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7920" xr2:uid="{FEB08D4F-0125-4E78-8DDB-84265F17C4A3}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="21">
   <si>
     <t>Office</t>
   </si>
@@ -91,6 +91,9 @@
   <si>
     <t>6month aggregation</t>
   </si>
+  <si>
+    <t>prediction ver 1</t>
+  </si>
 </sst>
 </file>
 
@@ -132,7 +135,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -155,12 +158,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -179,17 +191,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -507,8 +518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1178FA79-AAA5-4679-A351-B990647B639B}">
   <dimension ref="B2:T37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -579,63 +590,63 @@
       <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="9">
         <v>3797</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="9">
         <v>3388</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="9">
         <v>3409</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="9">
         <v>3326</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="9">
         <v>4232</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3" s="9">
         <v>3658</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="9">
         <v>3485</v>
       </c>
-      <c r="J3" s="11">
+      <c r="J3" s="9">
         <v>3667</v>
       </c>
-      <c r="K3" s="11">
+      <c r="K3" s="9">
         <v>2999</v>
       </c>
-      <c r="L3" s="11">
+      <c r="L3" s="9">
         <v>3422</v>
       </c>
-      <c r="M3" s="11">
+      <c r="M3" s="9">
         <v>4080</v>
       </c>
-      <c r="N3" s="11">
+      <c r="N3" s="9">
         <v>3896</v>
       </c>
-      <c r="O3" s="13">
+      <c r="O3" s="11">
         <f>AVERAGE(C3:N3)</f>
         <v>3613.25</v>
       </c>
-      <c r="P3" s="13">
+      <c r="P3" s="11">
         <f>MIN(C3:N3)</f>
         <v>2999</v>
       </c>
-      <c r="Q3" s="13">
+      <c r="Q3" s="11">
         <f>MAX(C3:N3)</f>
         <v>4232</v>
       </c>
-      <c r="R3" s="13">
+      <c r="R3" s="11">
         <f>MEDIAN(C3:N3)</f>
         <v>3571.5</v>
       </c>
-      <c r="S3" s="14">
+      <c r="S3" s="12">
         <f>SUM(C3:N3)</f>
         <v>43359</v>
       </c>
-      <c r="T3" s="14">
+      <c r="T3" s="12">
         <f>SUM(C3:H3)</f>
         <v>21810</v>
       </c>
@@ -644,63 +655,63 @@
       <c r="B4" s="1">
         <v>2</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="9">
         <v>4149</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="9">
         <v>3416</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="9">
         <v>3923</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="9">
         <v>3781</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="9">
         <v>4354</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="9">
         <v>4022</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="9">
         <v>4033</v>
       </c>
-      <c r="J4" s="11">
+      <c r="J4" s="9">
         <v>4106</v>
       </c>
-      <c r="K4" s="11">
+      <c r="K4" s="9">
         <v>3804</v>
       </c>
-      <c r="L4" s="11">
+      <c r="L4" s="9">
         <v>4434</v>
       </c>
-      <c r="M4" s="11">
+      <c r="M4" s="9">
         <v>4300</v>
       </c>
-      <c r="N4" s="11">
+      <c r="N4" s="9">
         <v>4072</v>
       </c>
-      <c r="O4" s="13">
+      <c r="O4" s="11">
         <f t="shared" ref="O4:O12" si="0">AVERAGE(C4:N4)</f>
         <v>4032.8333333333335</v>
       </c>
-      <c r="P4" s="13">
+      <c r="P4" s="11">
         <f t="shared" ref="P4:P12" si="1">MIN(C4:N4)</f>
         <v>3416</v>
       </c>
-      <c r="Q4" s="13">
+      <c r="Q4" s="11">
         <f t="shared" ref="Q4:Q12" si="2">MAX(C4:N4)</f>
         <v>4434</v>
       </c>
-      <c r="R4" s="13">
+      <c r="R4" s="11">
         <f t="shared" ref="R4:R12" si="3">MEDIAN(C4:N4)</f>
         <v>4052.5</v>
       </c>
-      <c r="S4" s="14">
+      <c r="S4" s="12">
         <f t="shared" ref="S4:S12" si="4">SUM(C4:N4)</f>
         <v>48394</v>
       </c>
-      <c r="T4" s="14">
+      <c r="T4" s="12">
         <f t="shared" ref="T4:T12" si="5">SUM(C4:H4)</f>
         <v>23645</v>
       </c>
@@ -709,63 +720,63 @@
       <c r="B5" s="1">
         <v>3</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="9">
         <v>4278</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="9">
         <v>3712</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="9">
         <v>4064</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="9">
         <v>4168</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="9">
         <v>4697</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="9">
         <v>4327</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="9">
         <v>4309</v>
       </c>
-      <c r="J5" s="11">
+      <c r="J5" s="9">
         <v>4411</v>
       </c>
-      <c r="K5" s="11">
+      <c r="K5" s="9">
         <v>3881</v>
       </c>
-      <c r="L5" s="11">
+      <c r="L5" s="9">
         <v>4642</v>
       </c>
-      <c r="M5" s="11">
+      <c r="M5" s="9">
         <v>4314</v>
       </c>
-      <c r="N5" s="11">
+      <c r="N5" s="9">
         <v>4468</v>
       </c>
-      <c r="O5" s="13">
+      <c r="O5" s="11">
         <f t="shared" si="0"/>
         <v>4272.583333333333</v>
       </c>
-      <c r="P5" s="13">
+      <c r="P5" s="11">
         <f t="shared" si="1"/>
         <v>3712</v>
       </c>
-      <c r="Q5" s="13">
+      <c r="Q5" s="11">
         <f t="shared" si="2"/>
         <v>4697</v>
       </c>
-      <c r="R5" s="13">
+      <c r="R5" s="11">
         <f t="shared" si="3"/>
         <v>4311.5</v>
       </c>
-      <c r="S5" s="14">
+      <c r="S5" s="12">
         <f t="shared" si="4"/>
         <v>51271</v>
       </c>
-      <c r="T5" s="14">
+      <c r="T5" s="12">
         <f t="shared" si="5"/>
         <v>25246</v>
       </c>
@@ -774,63 +785,63 @@
       <c r="B6" s="1">
         <v>4</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="9">
         <v>4291</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="9">
         <v>3844</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="9">
         <v>4069</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="9">
         <v>4787</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="9">
         <v>4811</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="9">
         <v>4399</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I6" s="9">
         <v>4339</v>
       </c>
-      <c r="J6" s="11">
+      <c r="J6" s="9">
         <v>4561</v>
       </c>
-      <c r="K6" s="11">
+      <c r="K6" s="9">
         <v>4447</v>
       </c>
-      <c r="L6" s="11">
+      <c r="L6" s="9">
         <v>4663</v>
       </c>
-      <c r="M6" s="11">
+      <c r="M6" s="9">
         <v>4453</v>
       </c>
-      <c r="N6" s="11">
+      <c r="N6" s="9">
         <v>4498</v>
       </c>
-      <c r="O6" s="13">
+      <c r="O6" s="11">
         <f t="shared" si="0"/>
         <v>4430.166666666667</v>
       </c>
-      <c r="P6" s="13">
+      <c r="P6" s="11">
         <f t="shared" si="1"/>
         <v>3844</v>
       </c>
-      <c r="Q6" s="13">
+      <c r="Q6" s="11">
         <f t="shared" si="2"/>
         <v>4811</v>
       </c>
-      <c r="R6" s="13">
+      <c r="R6" s="11">
         <f t="shared" si="3"/>
         <v>4450</v>
       </c>
-      <c r="S6" s="14">
+      <c r="S6" s="12">
         <f t="shared" si="4"/>
         <v>53162</v>
       </c>
-      <c r="T6" s="14">
+      <c r="T6" s="12">
         <f t="shared" si="5"/>
         <v>26201</v>
       </c>
@@ -839,63 +850,63 @@
       <c r="B7" s="1">
         <v>5</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="9">
         <v>4947</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="9">
         <v>4216</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="9">
         <v>4786</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="9">
         <v>5040</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="9">
         <v>4915</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="9">
         <v>4447</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I7" s="9">
         <v>4551</v>
       </c>
-      <c r="J7" s="11">
+      <c r="J7" s="9">
         <v>4815</v>
       </c>
-      <c r="K7" s="11">
+      <c r="K7" s="9">
         <v>4478</v>
       </c>
-      <c r="L7" s="11">
+      <c r="L7" s="9">
         <v>4904</v>
       </c>
-      <c r="M7" s="11">
+      <c r="M7" s="9">
         <v>4742</v>
       </c>
-      <c r="N7" s="11">
+      <c r="N7" s="9">
         <v>4936</v>
       </c>
-      <c r="O7" s="13">
+      <c r="O7" s="11">
         <f t="shared" si="0"/>
         <v>4731.416666666667</v>
       </c>
-      <c r="P7" s="13">
+      <c r="P7" s="11">
         <f t="shared" si="1"/>
         <v>4216</v>
       </c>
-      <c r="Q7" s="13">
+      <c r="Q7" s="11">
         <f t="shared" si="2"/>
         <v>5040</v>
       </c>
-      <c r="R7" s="13">
+      <c r="R7" s="11">
         <f t="shared" si="3"/>
         <v>4800.5</v>
       </c>
-      <c r="S7" s="14">
+      <c r="S7" s="12">
         <f t="shared" si="4"/>
         <v>56777</v>
       </c>
-      <c r="T7" s="14">
+      <c r="T7" s="12">
         <f t="shared" si="5"/>
         <v>28351</v>
       </c>
@@ -904,63 +915,63 @@
       <c r="B8" s="1">
         <v>6</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="9">
         <v>5172</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="9">
         <v>4631</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="9">
         <v>5140</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="9">
         <v>5120</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="9">
         <v>4917</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="9">
         <v>4457</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I8" s="9">
         <v>4978</v>
       </c>
-      <c r="J8" s="11">
+      <c r="J8" s="9">
         <v>4992</v>
       </c>
-      <c r="K8" s="11">
+      <c r="K8" s="9">
         <v>4889</v>
       </c>
-      <c r="L8" s="11">
+      <c r="L8" s="9">
         <v>4919</v>
       </c>
-      <c r="M8" s="11">
+      <c r="M8" s="9">
         <v>5208</v>
       </c>
-      <c r="N8" s="11">
+      <c r="N8" s="9">
         <v>5047</v>
       </c>
-      <c r="O8" s="13">
+      <c r="O8" s="11">
         <f t="shared" si="0"/>
         <v>4955.833333333333</v>
       </c>
-      <c r="P8" s="13">
+      <c r="P8" s="11">
         <f t="shared" si="1"/>
         <v>4457</v>
       </c>
-      <c r="Q8" s="13">
+      <c r="Q8" s="11">
         <f t="shared" si="2"/>
         <v>5208</v>
       </c>
-      <c r="R8" s="13">
+      <c r="R8" s="11">
         <f t="shared" si="3"/>
         <v>4985</v>
       </c>
-      <c r="S8" s="14">
+      <c r="S8" s="12">
         <f t="shared" si="4"/>
         <v>59470</v>
       </c>
-      <c r="T8" s="14">
+      <c r="T8" s="12">
         <f t="shared" si="5"/>
         <v>29437</v>
       </c>
@@ -969,63 +980,63 @@
       <c r="B9" s="1">
         <v>7</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="9">
         <v>5289</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="9">
         <v>4671</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="9">
         <v>5322</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="9">
         <v>5190</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="9">
         <v>5123</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H9" s="9">
         <v>4869</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I9" s="9">
         <v>5108</v>
       </c>
-      <c r="J9" s="11">
+      <c r="J9" s="9">
         <v>5484</v>
       </c>
-      <c r="K9" s="11">
+      <c r="K9" s="9">
         <v>4912</v>
       </c>
-      <c r="L9" s="11">
+      <c r="L9" s="9">
         <v>5090</v>
       </c>
-      <c r="M9" s="11">
+      <c r="M9" s="9">
         <v>5344</v>
       </c>
-      <c r="N9" s="11">
+      <c r="N9" s="9">
         <v>5165</v>
       </c>
-      <c r="O9" s="13">
+      <c r="O9" s="11">
         <f t="shared" si="0"/>
         <v>5130.583333333333</v>
       </c>
-      <c r="P9" s="13">
+      <c r="P9" s="11">
         <f t="shared" si="1"/>
         <v>4671</v>
       </c>
-      <c r="Q9" s="13">
+      <c r="Q9" s="11">
         <f t="shared" si="2"/>
         <v>5484</v>
       </c>
-      <c r="R9" s="13">
+      <c r="R9" s="11">
         <f t="shared" si="3"/>
         <v>5144</v>
       </c>
-      <c r="S9" s="14">
+      <c r="S9" s="12">
         <f t="shared" si="4"/>
         <v>61567</v>
       </c>
-      <c r="T9" s="14">
+      <c r="T9" s="12">
         <f t="shared" si="5"/>
         <v>30464</v>
       </c>
@@ -1034,63 +1045,63 @@
       <c r="B10" s="2">
         <v>8</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="10">
         <v>5403</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="10">
         <v>5134</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="10">
         <v>5784</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="10">
         <v>5196</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="10">
         <v>5652</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="10">
         <v>5100</v>
       </c>
-      <c r="I10" s="12">
+      <c r="I10" s="10">
         <v>5505</v>
       </c>
-      <c r="J10" s="12">
+      <c r="J10" s="10">
         <v>5542</v>
       </c>
-      <c r="K10" s="12">
+      <c r="K10" s="10">
         <v>5036</v>
       </c>
-      <c r="L10" s="12">
+      <c r="L10" s="10">
         <v>5197</v>
       </c>
-      <c r="M10" s="12">
+      <c r="M10" s="10">
         <v>5354</v>
       </c>
-      <c r="N10" s="12">
+      <c r="N10" s="10">
         <v>5507</v>
       </c>
-      <c r="O10" s="13">
+      <c r="O10" s="11">
         <f t="shared" si="0"/>
         <v>5367.5</v>
       </c>
-      <c r="P10" s="13">
+      <c r="P10" s="11">
         <f t="shared" si="1"/>
         <v>5036</v>
       </c>
-      <c r="Q10" s="13">
+      <c r="Q10" s="11">
         <f t="shared" si="2"/>
         <v>5784</v>
       </c>
-      <c r="R10" s="13">
+      <c r="R10" s="11">
         <f t="shared" si="3"/>
         <v>5378.5</v>
       </c>
-      <c r="S10" s="14">
+      <c r="S10" s="12">
         <f t="shared" si="4"/>
         <v>64410</v>
       </c>
-      <c r="T10" s="14">
+      <c r="T10" s="12">
         <f t="shared" si="5"/>
         <v>32269</v>
       </c>
@@ -1099,63 +1110,63 @@
       <c r="B11" s="2">
         <v>9</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="10">
         <v>5808</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="10">
         <v>5290</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="10">
         <v>5835</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="10">
         <v>5807</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="10">
         <v>6559</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="10">
         <v>5737</v>
       </c>
-      <c r="I11" s="12">
+      <c r="I11" s="10">
         <v>5886</v>
       </c>
-      <c r="J11" s="12">
+      <c r="J11" s="10">
         <v>5559</v>
       </c>
-      <c r="K11" s="12">
+      <c r="K11" s="10">
         <v>5240</v>
       </c>
-      <c r="L11" s="12">
+      <c r="L11" s="10">
         <v>5324</v>
       </c>
-      <c r="M11" s="12">
+      <c r="M11" s="10">
         <v>5378</v>
       </c>
-      <c r="N11" s="12">
+      <c r="N11" s="10">
         <v>5713</v>
       </c>
-      <c r="O11" s="13">
+      <c r="O11" s="11">
         <f t="shared" si="0"/>
         <v>5678</v>
       </c>
-      <c r="P11" s="13">
+      <c r="P11" s="11">
         <f t="shared" si="1"/>
         <v>5240</v>
       </c>
-      <c r="Q11" s="13">
+      <c r="Q11" s="11">
         <f t="shared" si="2"/>
         <v>6559</v>
       </c>
-      <c r="R11" s="13">
+      <c r="R11" s="11">
         <f t="shared" si="3"/>
         <v>5725</v>
       </c>
-      <c r="S11" s="14">
+      <c r="S11" s="12">
         <f t="shared" si="4"/>
         <v>68136</v>
       </c>
-      <c r="T11" s="14">
+      <c r="T11" s="12">
         <f t="shared" si="5"/>
         <v>35036</v>
       </c>
@@ -1164,63 +1175,63 @@
       <c r="B12" s="2">
         <v>10</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="10">
         <v>9101</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="10">
         <v>7377</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="10">
         <v>7265</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="10">
         <v>7763</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="10">
         <v>8708</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H12" s="10">
         <v>8040</v>
       </c>
-      <c r="I12" s="12">
+      <c r="I12" s="10">
         <v>8563</v>
       </c>
-      <c r="J12" s="12">
+      <c r="J12" s="10">
         <v>8581</v>
       </c>
-      <c r="K12" s="12">
+      <c r="K12" s="10">
         <v>7940</v>
       </c>
-      <c r="L12" s="12">
+      <c r="L12" s="10">
         <v>8103</v>
       </c>
-      <c r="M12" s="12">
+      <c r="M12" s="10">
         <v>7652</v>
       </c>
-      <c r="N12" s="12">
+      <c r="N12" s="10">
         <v>7927</v>
       </c>
-      <c r="O12" s="13">
+      <c r="O12" s="11">
         <f t="shared" si="0"/>
         <v>8085</v>
       </c>
-      <c r="P12" s="13">
+      <c r="P12" s="11">
         <f t="shared" si="1"/>
         <v>7265</v>
       </c>
-      <c r="Q12" s="13">
+      <c r="Q12" s="11">
         <f t="shared" si="2"/>
         <v>9101</v>
       </c>
-      <c r="R12" s="13">
+      <c r="R12" s="11">
         <f t="shared" si="3"/>
         <v>7990</v>
       </c>
-      <c r="S12" s="14">
+      <c r="S12" s="12">
         <f t="shared" si="4"/>
         <v>97020</v>
       </c>
-      <c r="T12" s="14">
+      <c r="T12" s="12">
         <f t="shared" si="5"/>
         <v>48254</v>
       </c>
@@ -1243,10 +1254,12 @@
     <row r="14" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
+      <c r="D14" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
@@ -1255,483 +1268,600 @@
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
     </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="D15" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
+    <row r="15" spans="2:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="D16" s="9">
-        <f>(D3-C3)/C3</f>
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="8">
+        <f t="shared" ref="D16:N16" si="6">(D3-C3)/C3</f>
         <v>-0.10771661838293389</v>
       </c>
-      <c r="E16" s="9">
-        <f>(E3-D3)/D3</f>
+      <c r="E16" s="8">
+        <f t="shared" si="6"/>
         <v>6.1983471074380167E-3</v>
       </c>
-      <c r="F16" s="9">
-        <f>(F3-E3)/E3</f>
+      <c r="F16" s="8">
+        <f t="shared" si="6"/>
         <v>-2.4347315928424759E-2</v>
       </c>
-      <c r="G16" s="9">
-        <f>(G3-F3)/F3</f>
+      <c r="G16" s="8">
+        <f t="shared" si="6"/>
         <v>0.2723992784125075</v>
       </c>
-      <c r="H16" s="9">
-        <f>(H3-G3)/G3</f>
+      <c r="H16" s="8">
+        <f t="shared" si="6"/>
         <v>-0.13563327032136105</v>
       </c>
-      <c r="I16" s="9">
-        <f>(I3-H3)/H3</f>
+      <c r="I16" s="8">
+        <f t="shared" si="6"/>
         <v>-4.7293603061782395E-2</v>
       </c>
-      <c r="J16" s="9">
-        <f>(J3-I3)/I3</f>
+      <c r="J16" s="8">
+        <f t="shared" si="6"/>
         <v>5.2223816355810616E-2</v>
       </c>
-      <c r="K16" s="9">
-        <f>(K3-J3)/J3</f>
+      <c r="K16" s="8">
+        <f t="shared" si="6"/>
         <v>-0.18216525770384512</v>
       </c>
-      <c r="L16" s="9">
-        <f>(L3-K3)/K3</f>
+      <c r="L16" s="8">
+        <f t="shared" si="6"/>
         <v>0.14104701567189062</v>
       </c>
-      <c r="M16" s="9">
-        <f>(M3-L3)/L3</f>
+      <c r="M16" s="8">
+        <f t="shared" si="6"/>
         <v>0.19228521332554063</v>
       </c>
-      <c r="N16" s="9">
-        <f>(N3-M3)/M3</f>
+      <c r="N16" s="8">
+        <f t="shared" si="6"/>
         <v>-4.5098039215686274E-2</v>
       </c>
     </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="D17" s="9">
-        <f>(D4-C4)/C4</f>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B17" s="1">
+        <v>2</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="8">
+        <f t="shared" ref="D17:N17" si="7">(D4-C4)/C4</f>
         <v>-0.17666907688599662</v>
       </c>
-      <c r="E17" s="9">
-        <f>(E4-D4)/D4</f>
+      <c r="E17" s="8">
+        <f t="shared" si="7"/>
         <v>0.1484192037470726</v>
       </c>
-      <c r="F17" s="9">
-        <f>(F4-E4)/E4</f>
+      <c r="F17" s="8">
+        <f t="shared" si="7"/>
         <v>-3.6196788172317106E-2</v>
       </c>
-      <c r="G17" s="9">
-        <f>(G4-F4)/F4</f>
+      <c r="G17" s="8">
+        <f t="shared" si="7"/>
         <v>0.15154720973287489</v>
       </c>
-      <c r="H17" s="9">
-        <f>(H4-G4)/G4</f>
+      <c r="H17" s="8">
+        <f t="shared" si="7"/>
         <v>-7.6251722553973361E-2</v>
       </c>
-      <c r="I17" s="9">
-        <f>(I4-H4)/H4</f>
+      <c r="I17" s="8">
+        <f t="shared" si="7"/>
         <v>2.7349577324714074E-3</v>
       </c>
-      <c r="J17" s="9">
-        <f>(J4-I4)/I4</f>
+      <c r="J17" s="8">
+        <f t="shared" si="7"/>
         <v>1.8100669476816267E-2</v>
       </c>
-      <c r="K17" s="9">
-        <f>(K4-J4)/J4</f>
+      <c r="K17" s="8">
+        <f t="shared" si="7"/>
         <v>-7.3550901120311735E-2</v>
       </c>
-      <c r="L17" s="9">
-        <f>(L4-K4)/K4</f>
+      <c r="L17" s="8">
+        <f t="shared" si="7"/>
         <v>0.16561514195583596</v>
       </c>
-      <c r="M17" s="9">
-        <f>(M4-L4)/L4</f>
+      <c r="M17" s="8">
+        <f t="shared" si="7"/>
         <v>-3.0221019395579612E-2</v>
       </c>
-      <c r="N17" s="9">
-        <f>(N4-M4)/M4</f>
+      <c r="N17" s="8">
+        <f t="shared" si="7"/>
         <v>-5.3023255813953486E-2</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="D18" s="9">
-        <f>(D5-C5)/C5</f>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B18" s="1">
+        <v>3</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="8">
+        <f t="shared" ref="D18:N18" si="8">(D5-C5)/C5</f>
         <v>-0.13230481533426836</v>
       </c>
-      <c r="E18" s="9">
-        <f>(E5-D5)/D5</f>
+      <c r="E18" s="8">
+        <f t="shared" si="8"/>
         <v>9.4827586206896547E-2</v>
       </c>
-      <c r="F18" s="9">
-        <f>(F5-E5)/E5</f>
+      <c r="F18" s="8">
+        <f t="shared" si="8"/>
         <v>2.5590551181102362E-2</v>
       </c>
-      <c r="G18" s="9">
-        <f>(G5-F5)/F5</f>
+      <c r="G18" s="8">
+        <f t="shared" si="8"/>
         <v>0.1269193857965451</v>
       </c>
-      <c r="H18" s="9">
-        <f>(H5-G5)/G5</f>
+      <c r="H18" s="8">
+        <f t="shared" si="8"/>
         <v>-7.8773685331062382E-2</v>
       </c>
-      <c r="I18" s="9">
-        <f>(I5-H5)/H5</f>
+      <c r="I18" s="8">
+        <f t="shared" si="8"/>
         <v>-4.1599260457591868E-3</v>
       </c>
-      <c r="J18" s="9">
-        <f>(J5-I5)/I5</f>
+      <c r="J18" s="8">
+        <f t="shared" si="8"/>
         <v>2.3671385472267346E-2</v>
       </c>
-      <c r="K18" s="9">
-        <f>(K5-J5)/J5</f>
+      <c r="K18" s="8">
+        <f t="shared" si="8"/>
         <v>-0.12015416005440943</v>
       </c>
-      <c r="L18" s="9">
-        <f>(L5-K5)/K5</f>
+      <c r="L18" s="8">
+        <f t="shared" si="8"/>
         <v>0.19608348363823758</v>
       </c>
-      <c r="M18" s="9">
-        <f>(M5-L5)/L5</f>
+      <c r="M18" s="8">
+        <f t="shared" si="8"/>
         <v>-7.0659198621283933E-2</v>
       </c>
-      <c r="N18" s="9">
-        <f>(N5-M5)/M5</f>
+      <c r="N18" s="8">
+        <f t="shared" si="8"/>
         <v>3.5697728326379227E-2</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="D19" s="9">
-        <f>(D6-C6)/C6</f>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B19" s="1">
+        <v>4</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="8">
+        <f t="shared" ref="D19:N19" si="9">(D6-C6)/C6</f>
         <v>-0.1041715217897926</v>
       </c>
-      <c r="E19" s="9">
-        <f>(E6-D6)/D6</f>
+      <c r="E19" s="8">
+        <f t="shared" si="9"/>
         <v>5.8532778355879292E-2</v>
       </c>
-      <c r="F19" s="9">
-        <f>(F6-E6)/E6</f>
+      <c r="F19" s="8">
+        <f t="shared" si="9"/>
         <v>0.17645613172769722</v>
       </c>
-      <c r="G19" s="9">
-        <f>(G6-F6)/F6</f>
+      <c r="G19" s="8">
+        <f t="shared" si="9"/>
         <v>5.0135784416127007E-3</v>
       </c>
-      <c r="H19" s="9">
-        <f>(H6-G6)/G6</f>
+      <c r="H19" s="8">
+        <f t="shared" si="9"/>
         <v>-8.5637081687798794E-2</v>
       </c>
-      <c r="I19" s="9">
-        <f>(I6-H6)/H6</f>
+      <c r="I19" s="8">
+        <f t="shared" si="9"/>
         <v>-1.36394635144351E-2</v>
       </c>
-      <c r="J19" s="9">
-        <f>(J6-I6)/I6</f>
+      <c r="J19" s="8">
+        <f t="shared" si="9"/>
         <v>5.1163862641161559E-2</v>
       </c>
-      <c r="K19" s="9">
-        <f>(K6-J6)/J6</f>
+      <c r="K19" s="8">
+        <f t="shared" si="9"/>
         <v>-2.4994518745889059E-2</v>
       </c>
-      <c r="L19" s="9">
-        <f>(L6-K6)/K6</f>
+      <c r="L19" s="8">
+        <f t="shared" si="9"/>
         <v>4.8572071059140992E-2</v>
       </c>
-      <c r="M19" s="9">
-        <f>(M6-L6)/L6</f>
+      <c r="M19" s="8">
+        <f t="shared" si="9"/>
         <v>-4.5035384945314179E-2</v>
       </c>
-      <c r="N19" s="9">
-        <f>(N6-M6)/M6</f>
+      <c r="N19" s="8">
+        <f t="shared" si="9"/>
         <v>1.0105546822366944E-2</v>
       </c>
     </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="D20" s="9">
-        <f>(D7-C7)/C7</f>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B20" s="1">
+        <v>5</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="8">
+        <f t="shared" ref="D20:N20" si="10">(D7-C7)/C7</f>
         <v>-0.14776632302405499</v>
       </c>
-      <c r="E20" s="9">
-        <f>(E7-D7)/D7</f>
+      <c r="E20" s="8">
+        <f t="shared" si="10"/>
         <v>0.13519924098671726</v>
       </c>
-      <c r="F20" s="9">
-        <f>(F7-E7)/E7</f>
+      <c r="F20" s="8">
+        <f t="shared" si="10"/>
         <v>5.3071458420392813E-2</v>
       </c>
-      <c r="G20" s="9">
-        <f>(G7-F7)/F7</f>
+      <c r="G20" s="8">
+        <f t="shared" si="10"/>
         <v>-2.48015873015873E-2</v>
       </c>
-      <c r="H20" s="9">
-        <f>(H7-G7)/G7</f>
+      <c r="H20" s="8">
+        <f t="shared" si="10"/>
         <v>-9.5218718209562569E-2</v>
       </c>
-      <c r="I20" s="9">
-        <f>(I7-H7)/H7</f>
+      <c r="I20" s="8">
+        <f t="shared" si="10"/>
         <v>2.3386552732178996E-2</v>
       </c>
-      <c r="J20" s="9">
-        <f>(J7-I7)/I7</f>
+      <c r="J20" s="8">
+        <f t="shared" si="10"/>
         <v>5.8009228740936059E-2</v>
       </c>
-      <c r="K20" s="9">
-        <f>(K7-J7)/J7</f>
+      <c r="K20" s="8">
+        <f t="shared" si="10"/>
         <v>-6.9989615784008308E-2</v>
       </c>
-      <c r="L20" s="9">
-        <f>(L7-K7)/K7</f>
+      <c r="L20" s="8">
+        <f t="shared" si="10"/>
         <v>9.5131755247878522E-2</v>
       </c>
-      <c r="M20" s="9">
-        <f>(M7-L7)/L7</f>
+      <c r="M20" s="8">
+        <f t="shared" si="10"/>
         <v>-3.303425774877651E-2</v>
       </c>
-      <c r="N20" s="9">
-        <f>(N7-M7)/M7</f>
+      <c r="N20" s="8">
+        <f t="shared" si="10"/>
         <v>4.0911008013496418E-2</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="D21" s="9">
-        <f>(D8-C8)/C8</f>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B21" s="1">
+        <v>6</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="8">
+        <f t="shared" ref="D21:N21" si="11">(D8-C8)/C8</f>
         <v>-0.10460170146945089</v>
       </c>
-      <c r="E21" s="9">
-        <f>(E8-D8)/D8</f>
+      <c r="E21" s="8">
+        <f t="shared" si="11"/>
         <v>0.10991146620600302</v>
       </c>
-      <c r="F21" s="9">
-        <f>(F8-E8)/E8</f>
+      <c r="F21" s="8">
+        <f t="shared" si="11"/>
         <v>-3.8910505836575876E-3</v>
       </c>
-      <c r="G21" s="9">
-        <f>(G8-F8)/F8</f>
+      <c r="G21" s="8">
+        <f t="shared" si="11"/>
         <v>-3.9648437500000001E-2</v>
       </c>
-      <c r="H21" s="9">
-        <f>(H8-G8)/G8</f>
+      <c r="H21" s="8">
+        <f t="shared" si="11"/>
         <v>-9.3552979459019733E-2</v>
       </c>
-      <c r="I21" s="9">
-        <f>(I8-H8)/H8</f>
+      <c r="I21" s="8">
+        <f t="shared" si="11"/>
         <v>0.11689477226834194</v>
       </c>
-      <c r="J21" s="9">
-        <f>(J8-I8)/I8</f>
+      <c r="J21" s="8">
+        <f t="shared" si="11"/>
         <v>2.8123744475693048E-3</v>
       </c>
-      <c r="K21" s="9">
-        <f>(K8-J8)/J8</f>
+      <c r="K21" s="8">
+        <f t="shared" si="11"/>
         <v>-2.063301282051282E-2</v>
       </c>
-      <c r="L21" s="9">
-        <f>(L8-K8)/K8</f>
+      <c r="L21" s="8">
+        <f t="shared" si="11"/>
         <v>6.1362241767232567E-3</v>
       </c>
-      <c r="M21" s="9">
-        <f>(M8-L8)/L8</f>
+      <c r="M21" s="8">
+        <f t="shared" si="11"/>
         <v>5.8751778816832689E-2</v>
       </c>
-      <c r="N21" s="9">
-        <f>(N8-M8)/M8</f>
+      <c r="N21" s="8">
+        <f t="shared" si="11"/>
         <v>-3.0913978494623656E-2</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="D22" s="9">
-        <f>(D9-C9)/C9</f>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B22" s="1">
+        <v>7</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="8">
+        <f t="shared" ref="D22:N22" si="12">(D9-C9)/C9</f>
         <v>-0.11684628474191719</v>
       </c>
-      <c r="E22" s="9">
-        <f>(E9-D9)/D9</f>
+      <c r="E22" s="8">
+        <f t="shared" si="12"/>
         <v>0.13937058445728967</v>
       </c>
-      <c r="F22" s="9">
-        <f>(F9-E9)/E9</f>
+      <c r="F22" s="8">
+        <f t="shared" si="12"/>
         <v>-2.480270574971815E-2</v>
       </c>
-      <c r="G22" s="9">
-        <f>(G9-F9)/F9</f>
+      <c r="G22" s="8">
+        <f t="shared" si="12"/>
         <v>-1.2909441233140655E-2</v>
       </c>
-      <c r="H22" s="9">
-        <f>(H9-G9)/G9</f>
+      <c r="H22" s="8">
+        <f t="shared" si="12"/>
         <v>-4.9580324028889323E-2</v>
       </c>
-      <c r="I22" s="9">
-        <f>(I9-H9)/H9</f>
+      <c r="I22" s="8">
+        <f t="shared" si="12"/>
         <v>4.9086054631341136E-2</v>
       </c>
-      <c r="J22" s="9">
-        <f>(J9-I9)/I9</f>
+      <c r="J22" s="8">
+        <f t="shared" si="12"/>
         <v>7.3610023492560683E-2</v>
       </c>
-      <c r="K22" s="9">
-        <f>(K9-J9)/J9</f>
+      <c r="K22" s="8">
+        <f t="shared" si="12"/>
         <v>-0.10430342815463166</v>
       </c>
-      <c r="L22" s="9">
-        <f>(L9-K9)/K9</f>
+      <c r="L22" s="8">
+        <f t="shared" si="12"/>
         <v>3.6237785016286647E-2</v>
       </c>
-      <c r="M22" s="9">
-        <f>(M9-L9)/L9</f>
+      <c r="M22" s="8">
+        <f t="shared" si="12"/>
         <v>4.9901768172888016E-2</v>
       </c>
-      <c r="N22" s="9">
-        <f>(N9-M9)/M9</f>
+      <c r="N22" s="8">
+        <f t="shared" si="12"/>
         <v>-3.3495508982035925E-2</v>
       </c>
     </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="D23" s="9">
-        <f>(D10-C10)/C10</f>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B23" s="2">
+        <v>8</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="8">
+        <f t="shared" ref="D23:N23" si="13">(D10-C10)/C10</f>
         <v>-4.9787155284101423E-2</v>
       </c>
-      <c r="E23" s="9">
-        <f>(E10-D10)/D10</f>
+      <c r="E23" s="8">
+        <f t="shared" si="13"/>
         <v>0.12660693416439422</v>
       </c>
-      <c r="F23" s="9">
-        <f>(F10-E10)/E10</f>
+      <c r="F23" s="8">
+        <f t="shared" si="13"/>
         <v>-0.1016597510373444</v>
       </c>
-      <c r="G23" s="9">
-        <f>(G10-F10)/F10</f>
+      <c r="G23" s="8">
+        <f t="shared" si="13"/>
         <v>8.7759815242494224E-2</v>
       </c>
-      <c r="H23" s="9">
-        <f>(H10-G10)/G10</f>
+      <c r="H23" s="8">
+        <f t="shared" si="13"/>
         <v>-9.7664543524416142E-2</v>
       </c>
-      <c r="I23" s="9">
-        <f>(I10-H10)/H10</f>
+      <c r="I23" s="8">
+        <f t="shared" si="13"/>
         <v>7.9411764705882348E-2</v>
       </c>
-      <c r="J23" s="9">
-        <f>(J10-I10)/I10</f>
+      <c r="J23" s="8">
+        <f t="shared" si="13"/>
         <v>6.7211625794732065E-3</v>
       </c>
-      <c r="K23" s="9">
-        <f>(K10-J10)/J10</f>
+      <c r="K23" s="8">
+        <f t="shared" si="13"/>
         <v>-9.1302778780223748E-2</v>
       </c>
-      <c r="L23" s="9">
-        <f>(L10-K10)/K10</f>
+      <c r="L23" s="8">
+        <f t="shared" si="13"/>
         <v>3.1969817315329628E-2</v>
       </c>
-      <c r="M23" s="9">
-        <f>(M10-L10)/L10</f>
+      <c r="M23" s="8">
+        <f t="shared" si="13"/>
         <v>3.0209736386376754E-2</v>
       </c>
-      <c r="N23" s="9">
-        <f>(N10-M10)/M10</f>
+      <c r="N23" s="8">
+        <f t="shared" si="13"/>
         <v>2.8576765035487485E-2</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="D24" s="9">
-        <f>(D11-C11)/C11</f>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B24" s="2">
+        <v>9</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="8">
+        <f t="shared" ref="D24:N24" si="14">(D11-C11)/C11</f>
         <v>-8.9187327823691459E-2</v>
       </c>
-      <c r="E24" s="9">
-        <f>(E11-D11)/D11</f>
+      <c r="E24" s="8">
+        <f t="shared" si="14"/>
         <v>0.10302457466918714</v>
       </c>
-      <c r="F24" s="9">
-        <f>(F11-E11)/E11</f>
+      <c r="F24" s="8">
+        <f t="shared" si="14"/>
         <v>-4.7986289631533844E-3</v>
       </c>
-      <c r="G24" s="9">
-        <f>(G11-F11)/F11</f>
+      <c r="G24" s="8">
+        <f t="shared" si="14"/>
         <v>0.12949888066127088</v>
       </c>
-      <c r="H24" s="9">
-        <f>(H11-G11)/G11</f>
+      <c r="H24" s="8">
+        <f t="shared" si="14"/>
         <v>-0.12532398231437719</v>
       </c>
-      <c r="I24" s="9">
-        <f>(I11-H11)/H11</f>
+      <c r="I24" s="8">
+        <f t="shared" si="14"/>
         <v>2.5971762245075823E-2</v>
       </c>
-      <c r="J24" s="9">
-        <f>(J11-I11)/I11</f>
+      <c r="J24" s="8">
+        <f t="shared" si="14"/>
         <v>-5.5555555555555552E-2</v>
       </c>
-      <c r="K24" s="9">
-        <f>(K11-J11)/J11</f>
+      <c r="K24" s="8">
+        <f t="shared" si="14"/>
         <v>-5.7384421658571688E-2</v>
       </c>
-      <c r="L24" s="9">
-        <f>(L11-K11)/K11</f>
+      <c r="L24" s="8">
+        <f t="shared" si="14"/>
         <v>1.6030534351145039E-2</v>
       </c>
-      <c r="M24" s="9">
-        <f>(M11-L11)/L11</f>
+      <c r="M24" s="8">
+        <f t="shared" si="14"/>
         <v>1.01427498121713E-2</v>
       </c>
-      <c r="N24" s="9">
-        <f>(N11-M11)/M11</f>
+      <c r="N24" s="8">
+        <f t="shared" si="14"/>
         <v>6.2290814429155822E-2</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="D25" s="9">
-        <f>(D12-C12)/C12</f>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B25" s="2">
+        <v>10</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="8">
+        <f t="shared" ref="D25:N25" si="15">(D12-C12)/C12</f>
         <v>-0.18942973299637403</v>
       </c>
-      <c r="E25" s="9">
-        <f>(E12-D12)/D12</f>
+      <c r="E25" s="8">
+        <f t="shared" si="15"/>
         <v>-1.5182323437711807E-2</v>
       </c>
-      <c r="F25" s="9">
-        <f>(F12-E12)/E12</f>
+      <c r="F25" s="8">
+        <f t="shared" si="15"/>
         <v>6.8547832071576054E-2</v>
       </c>
-      <c r="G25" s="9">
-        <f>(G12-F12)/F12</f>
+      <c r="G25" s="8">
+        <f t="shared" si="15"/>
         <v>0.12173128944995491</v>
       </c>
-      <c r="H25" s="9">
-        <f>(H12-G12)/G12</f>
+      <c r="H25" s="8">
+        <f t="shared" si="15"/>
         <v>-7.6711070280202118E-2</v>
       </c>
-      <c r="I25" s="9">
-        <f>(I12-H12)/H12</f>
+      <c r="I25" s="8">
+        <f t="shared" si="15"/>
         <v>6.5049751243781095E-2</v>
       </c>
-      <c r="J25" s="9">
-        <f>(J12-I12)/I12</f>
+      <c r="J25" s="8">
+        <f t="shared" si="15"/>
         <v>2.1020670325820391E-3</v>
       </c>
-      <c r="K25" s="9">
-        <f>(K12-J12)/J12</f>
+      <c r="K25" s="8">
+        <f t="shared" si="15"/>
         <v>-7.4699918424426054E-2</v>
       </c>
-      <c r="L25" s="9">
-        <f>(L12-K12)/K12</f>
+      <c r="L25" s="8">
+        <f t="shared" si="15"/>
         <v>2.0528967254408059E-2</v>
       </c>
-      <c r="M25" s="9">
-        <f>(M12-L12)/L12</f>
+      <c r="M25" s="8">
+        <f t="shared" si="15"/>
         <v>-5.5658398124151548E-2</v>
       </c>
-      <c r="N25" s="9">
-        <f>(N12-M12)/M12</f>
+      <c r="N25" s="8">
+        <f t="shared" si="15"/>
         <v>3.5938316779926816E-2</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C28" s="11">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D26" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+    </row>
+    <row r="27" spans="2:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B28" s="1">
+        <v>1</v>
+      </c>
+      <c r="C28" s="9">
         <v>3896</v>
       </c>
       <c r="D28" s="10"/>
@@ -1746,8 +1876,11 @@
       <c r="M28" s="10"/>
       <c r="N28" s="10"/>
     </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C29" s="11">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B29" s="1">
+        <v>2</v>
+      </c>
+      <c r="C29" s="9">
         <v>4072</v>
       </c>
       <c r="D29" s="10"/>
@@ -1762,8 +1895,11 @@
       <c r="M29" s="10"/>
       <c r="N29" s="10"/>
     </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C30" s="11">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B30" s="1">
+        <v>3</v>
+      </c>
+      <c r="C30" s="9">
         <v>4468</v>
       </c>
       <c r="D30" s="10"/>
@@ -1778,8 +1914,11 @@
       <c r="M30" s="10"/>
       <c r="N30" s="10"/>
     </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C31" s="11">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B31" s="1">
+        <v>4</v>
+      </c>
+      <c r="C31" s="9">
         <v>4498</v>
       </c>
       <c r="D31" s="10"/>
@@ -1794,8 +1933,11 @@
       <c r="M31" s="10"/>
       <c r="N31" s="10"/>
     </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C32" s="11">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B32" s="1">
+        <v>5</v>
+      </c>
+      <c r="C32" s="9">
         <v>4936</v>
       </c>
       <c r="D32" s="10"/>
@@ -1810,8 +1952,11 @@
       <c r="M32" s="10"/>
       <c r="N32" s="10"/>
     </row>
-    <row r="33" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C33" s="11">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B33" s="1">
+        <v>6</v>
+      </c>
+      <c r="C33" s="9">
         <v>5047</v>
       </c>
       <c r="D33" s="10"/>
@@ -1826,8 +1971,11 @@
       <c r="M33" s="10"/>
       <c r="N33" s="10"/>
     </row>
-    <row r="34" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C34" s="11">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B34" s="1">
+        <v>7</v>
+      </c>
+      <c r="C34" s="9">
         <v>5165</v>
       </c>
       <c r="D34" s="10"/>
@@ -1842,8 +1990,11 @@
       <c r="M34" s="10"/>
       <c r="N34" s="10"/>
     </row>
-    <row r="35" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C35" s="12">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B35" s="2">
+        <v>8</v>
+      </c>
+      <c r="C35" s="10">
         <v>5507</v>
       </c>
       <c r="D35" s="10"/>
@@ -1858,8 +2009,11 @@
       <c r="M35" s="10"/>
       <c r="N35" s="10"/>
     </row>
-    <row r="36" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C36" s="12">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B36" s="2">
+        <v>9</v>
+      </c>
+      <c r="C36" s="10">
         <v>5713</v>
       </c>
       <c r="D36" s="10"/>
@@ -1874,8 +2028,11 @@
       <c r="M36" s="10"/>
       <c r="N36" s="10"/>
     </row>
-    <row r="37" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C37" s="12">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B37" s="2">
+        <v>10</v>
+      </c>
+      <c r="C37" s="10">
         <v>7927</v>
       </c>
       <c r="D37" s="10"/>
@@ -1891,8 +2048,9 @@
       <c r="N37" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D15:G15"/>
+  <mergeCells count="2">
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="D26:F26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/A2/Report/prediction .xlsx
+++ b/A2/Report/prediction .xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/93bdcf1d317cb3a6/UON/EBUS3030/EBUS3030/A2/Report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="340" documentId="8_{17DE6D2F-3F87-4459-B16F-E53571B6EFFB}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{260EE37F-B686-4C29-950A-A7A39D5BCE40}"/>
+  <xr:revisionPtr revIDLastSave="352" documentId="8_{17DE6D2F-3F87-4459-B16F-E53571B6EFFB}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{647262D1-8E23-4089-884F-F3D010C6F810}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7920" xr2:uid="{FEB08D4F-0125-4E78-8DDB-84265F17C4A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="34">
   <si>
     <t>Office</t>
   </si>
@@ -257,10 +259,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -12748,8 +12750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1178FA79-AAA5-4679-A351-B990647B639B}">
   <dimension ref="B2:AA37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C97" workbookViewId="0">
-      <selection activeCell="U72" sqref="U72"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26:N37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13527,12 +13529,12 @@
     <row r="14" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B14" s="17"/>
       <c r="C14" s="18"/>
-      <c r="D14" s="20" t="s">
+      <c r="D14" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
       <c r="H14" s="18"/>
       <c r="I14" s="18"/>
       <c r="J14" s="18"/>
@@ -13591,7 +13593,7 @@
         <v>-0.10771661838293389</v>
       </c>
       <c r="E16" s="19">
-        <f t="shared" ref="D16:N16" si="7">(E3-D3)/D3</f>
+        <f t="shared" ref="E16:N16" si="7">(E3-D3)/D3</f>
         <v>6.1983471074380167E-3</v>
       </c>
       <c r="F16" s="19">
@@ -14118,21 +14120,21 @@
       </c>
     </row>
     <row r="26" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
       <c r="D26" s="22" t="s">
         <v>19</v>
       </c>
       <c r="E26" s="22"/>
       <c r="F26" s="22"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="21"/>
-      <c r="N26" s="21"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="20"/>
+      <c r="N26" s="20"/>
     </row>
     <row r="27" spans="2:21" ht="30" x14ac:dyDescent="0.25">
       <c r="B27" s="13" t="s">
@@ -14724,4 +14726,936 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5F24E0A-DF40-4D4A-885E-C7B3632A8A82}">
+  <dimension ref="B2:N12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7">
+        <v>3797</v>
+      </c>
+      <c r="D3" s="7">
+        <v>3388</v>
+      </c>
+      <c r="E3" s="7">
+        <v>3409</v>
+      </c>
+      <c r="F3" s="7">
+        <v>3326</v>
+      </c>
+      <c r="G3" s="7">
+        <v>4232</v>
+      </c>
+      <c r="H3" s="7">
+        <v>3658</v>
+      </c>
+      <c r="I3" s="7">
+        <v>3485</v>
+      </c>
+      <c r="J3" s="7">
+        <v>3667</v>
+      </c>
+      <c r="K3" s="7">
+        <v>2999</v>
+      </c>
+      <c r="L3" s="7">
+        <v>3422</v>
+      </c>
+      <c r="M3" s="7">
+        <v>4080</v>
+      </c>
+      <c r="N3" s="7">
+        <v>3896</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="7">
+        <v>4149</v>
+      </c>
+      <c r="D4" s="7">
+        <v>3416</v>
+      </c>
+      <c r="E4" s="7">
+        <v>3923</v>
+      </c>
+      <c r="F4" s="7">
+        <v>3781</v>
+      </c>
+      <c r="G4" s="7">
+        <v>4354</v>
+      </c>
+      <c r="H4" s="7">
+        <v>4022</v>
+      </c>
+      <c r="I4" s="7">
+        <v>4033</v>
+      </c>
+      <c r="J4" s="7">
+        <v>4106</v>
+      </c>
+      <c r="K4" s="7">
+        <v>3804</v>
+      </c>
+      <c r="L4" s="7">
+        <v>4434</v>
+      </c>
+      <c r="M4" s="7">
+        <v>4300</v>
+      </c>
+      <c r="N4" s="7">
+        <v>4072</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="7">
+        <v>4278</v>
+      </c>
+      <c r="D5" s="7">
+        <v>3712</v>
+      </c>
+      <c r="E5" s="7">
+        <v>4064</v>
+      </c>
+      <c r="F5" s="7">
+        <v>4168</v>
+      </c>
+      <c r="G5" s="7">
+        <v>4697</v>
+      </c>
+      <c r="H5" s="7">
+        <v>4327</v>
+      </c>
+      <c r="I5" s="7">
+        <v>4309</v>
+      </c>
+      <c r="J5" s="7">
+        <v>4411</v>
+      </c>
+      <c r="K5" s="7">
+        <v>3881</v>
+      </c>
+      <c r="L5" s="7">
+        <v>4642</v>
+      </c>
+      <c r="M5" s="7">
+        <v>4314</v>
+      </c>
+      <c r="N5" s="7">
+        <v>4468</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="7">
+        <v>4291</v>
+      </c>
+      <c r="D6" s="7">
+        <v>3844</v>
+      </c>
+      <c r="E6" s="7">
+        <v>4069</v>
+      </c>
+      <c r="F6" s="7">
+        <v>4787</v>
+      </c>
+      <c r="G6" s="7">
+        <v>4811</v>
+      </c>
+      <c r="H6" s="7">
+        <v>4399</v>
+      </c>
+      <c r="I6" s="7">
+        <v>4339</v>
+      </c>
+      <c r="J6" s="7">
+        <v>4561</v>
+      </c>
+      <c r="K6" s="7">
+        <v>4447</v>
+      </c>
+      <c r="L6" s="7">
+        <v>4663</v>
+      </c>
+      <c r="M6" s="7">
+        <v>4453</v>
+      </c>
+      <c r="N6" s="7">
+        <v>4498</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
+        <v>5</v>
+      </c>
+      <c r="C7" s="7">
+        <v>4947</v>
+      </c>
+      <c r="D7" s="7">
+        <v>4216</v>
+      </c>
+      <c r="E7" s="7">
+        <v>4786</v>
+      </c>
+      <c r="F7" s="7">
+        <v>5040</v>
+      </c>
+      <c r="G7" s="7">
+        <v>4915</v>
+      </c>
+      <c r="H7" s="7">
+        <v>4447</v>
+      </c>
+      <c r="I7" s="7">
+        <v>4551</v>
+      </c>
+      <c r="J7" s="7">
+        <v>4815</v>
+      </c>
+      <c r="K7" s="7">
+        <v>4478</v>
+      </c>
+      <c r="L7" s="7">
+        <v>4904</v>
+      </c>
+      <c r="M7" s="7">
+        <v>4742</v>
+      </c>
+      <c r="N7" s="7">
+        <v>4936</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
+        <v>6</v>
+      </c>
+      <c r="C8" s="7">
+        <v>5172</v>
+      </c>
+      <c r="D8" s="7">
+        <v>4631</v>
+      </c>
+      <c r="E8" s="7">
+        <v>5140</v>
+      </c>
+      <c r="F8" s="7">
+        <v>5120</v>
+      </c>
+      <c r="G8" s="7">
+        <v>4917</v>
+      </c>
+      <c r="H8" s="7">
+        <v>4457</v>
+      </c>
+      <c r="I8" s="7">
+        <v>4978</v>
+      </c>
+      <c r="J8" s="7">
+        <v>4992</v>
+      </c>
+      <c r="K8" s="7">
+        <v>4889</v>
+      </c>
+      <c r="L8" s="7">
+        <v>4919</v>
+      </c>
+      <c r="M8" s="7">
+        <v>5208</v>
+      </c>
+      <c r="N8" s="7">
+        <v>5047</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
+        <v>7</v>
+      </c>
+      <c r="C9" s="7">
+        <v>5289</v>
+      </c>
+      <c r="D9" s="7">
+        <v>4671</v>
+      </c>
+      <c r="E9" s="7">
+        <v>5322</v>
+      </c>
+      <c r="F9" s="7">
+        <v>5190</v>
+      </c>
+      <c r="G9" s="7">
+        <v>5123</v>
+      </c>
+      <c r="H9" s="7">
+        <v>4869</v>
+      </c>
+      <c r="I9" s="7">
+        <v>5108</v>
+      </c>
+      <c r="J9" s="7">
+        <v>5484</v>
+      </c>
+      <c r="K9" s="7">
+        <v>4912</v>
+      </c>
+      <c r="L9" s="7">
+        <v>5090</v>
+      </c>
+      <c r="M9" s="7">
+        <v>5344</v>
+      </c>
+      <c r="N9" s="7">
+        <v>5165</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="2">
+        <v>8</v>
+      </c>
+      <c r="C10" s="8">
+        <v>5403</v>
+      </c>
+      <c r="D10" s="8">
+        <v>5134</v>
+      </c>
+      <c r="E10" s="8">
+        <v>5784</v>
+      </c>
+      <c r="F10" s="8">
+        <v>5196</v>
+      </c>
+      <c r="G10" s="8">
+        <v>5652</v>
+      </c>
+      <c r="H10" s="8">
+        <v>5100</v>
+      </c>
+      <c r="I10" s="8">
+        <v>5505</v>
+      </c>
+      <c r="J10" s="8">
+        <v>5542</v>
+      </c>
+      <c r="K10" s="8">
+        <v>5036</v>
+      </c>
+      <c r="L10" s="8">
+        <v>5197</v>
+      </c>
+      <c r="M10" s="8">
+        <v>5354</v>
+      </c>
+      <c r="N10" s="8">
+        <v>5507</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="2">
+        <v>9</v>
+      </c>
+      <c r="C11" s="8">
+        <v>5808</v>
+      </c>
+      <c r="D11" s="8">
+        <v>5290</v>
+      </c>
+      <c r="E11" s="8">
+        <v>5835</v>
+      </c>
+      <c r="F11" s="8">
+        <v>5807</v>
+      </c>
+      <c r="G11" s="8">
+        <v>6559</v>
+      </c>
+      <c r="H11" s="8">
+        <v>5737</v>
+      </c>
+      <c r="I11" s="8">
+        <v>5886</v>
+      </c>
+      <c r="J11" s="8">
+        <v>5559</v>
+      </c>
+      <c r="K11" s="8">
+        <v>5240</v>
+      </c>
+      <c r="L11" s="8">
+        <v>5324</v>
+      </c>
+      <c r="M11" s="8">
+        <v>5378</v>
+      </c>
+      <c r="N11" s="8">
+        <v>5713</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="2">
+        <v>10</v>
+      </c>
+      <c r="C12" s="8">
+        <v>9101</v>
+      </c>
+      <c r="D12" s="8">
+        <v>7377</v>
+      </c>
+      <c r="E12" s="8">
+        <v>7265</v>
+      </c>
+      <c r="F12" s="8">
+        <v>7763</v>
+      </c>
+      <c r="G12" s="8">
+        <v>8708</v>
+      </c>
+      <c r="H12" s="8">
+        <v>8040</v>
+      </c>
+      <c r="I12" s="8">
+        <v>8563</v>
+      </c>
+      <c r="J12" s="8">
+        <v>8581</v>
+      </c>
+      <c r="K12" s="8">
+        <v>7940</v>
+      </c>
+      <c r="L12" s="8">
+        <v>8103</v>
+      </c>
+      <c r="M12" s="8">
+        <v>7652</v>
+      </c>
+      <c r="N12" s="8">
+        <v>7927</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C525E8DE-415F-47EC-BF2B-1EC50CC88123}">
+  <dimension ref="B2:N12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>3896</v>
+      </c>
+      <c r="D3">
+        <v>3476.3360547800894</v>
+      </c>
+      <c r="E3">
+        <v>3497.8835923097181</v>
+      </c>
+      <c r="F3">
+        <v>3412.7195154069</v>
+      </c>
+      <c r="G3">
+        <v>4342.3418488280222</v>
+      </c>
+      <c r="H3">
+        <v>3753.3758230181725</v>
+      </c>
+      <c r="I3">
+        <v>3575.86515670266</v>
+      </c>
+      <c r="J3">
+        <v>3762.6104819594416</v>
+      </c>
+      <c r="K3">
+        <v>3077.1935738741113</v>
+      </c>
+      <c r="L3">
+        <v>3511.2225441137743</v>
+      </c>
+      <c r="M3">
+        <v>4186.3787200421393</v>
+      </c>
+      <c r="N3">
+        <v>3997.5812483539644</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>4072</v>
+      </c>
+      <c r="D4">
+        <v>3352.6035189202216</v>
+      </c>
+      <c r="E4">
+        <v>3850.1942636779945</v>
+      </c>
+      <c r="F4">
+        <v>3710.8295974933717</v>
+      </c>
+      <c r="G4">
+        <v>4273.1954687876596</v>
+      </c>
+      <c r="H4">
+        <v>3947.3569534827666</v>
+      </c>
+      <c r="I4">
+        <v>3958.1528079055192</v>
+      </c>
+      <c r="J4">
+        <v>4029.7980236201493</v>
+      </c>
+      <c r="K4">
+        <v>3733.402747650036</v>
+      </c>
+      <c r="L4">
+        <v>4351.7107736804046</v>
+      </c>
+      <c r="M4">
+        <v>4220.1976379850566</v>
+      </c>
+      <c r="N4">
+        <v>3996.4290190407328</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>4468</v>
+      </c>
+      <c r="D5">
+        <v>3876.8620850864891</v>
+      </c>
+      <c r="E5">
+        <v>4244.4955586722772</v>
+      </c>
+      <c r="F5">
+        <v>4353.1145395044414</v>
+      </c>
+      <c r="G5">
+        <v>4905.6091631603558</v>
+      </c>
+      <c r="H5">
+        <v>4519.1762505843853</v>
+      </c>
+      <c r="I5">
+        <v>4500.376811594203</v>
+      </c>
+      <c r="J5">
+        <v>4606.9069658719027</v>
+      </c>
+      <c r="K5">
+        <v>4053.3679289387564</v>
+      </c>
+      <c r="L5">
+        <v>4848.1664329125761</v>
+      </c>
+      <c r="M5">
+        <v>4505.5988779803647</v>
+      </c>
+      <c r="N5">
+        <v>4666.438522674147</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>4498</v>
+      </c>
+      <c r="D6">
+        <v>4029.436494989513</v>
+      </c>
+      <c r="E6">
+        <v>4265.2906082498257</v>
+      </c>
+      <c r="F6">
+        <v>5017.9272896760667</v>
+      </c>
+      <c r="G6">
+        <v>5043.0850617571668</v>
+      </c>
+      <c r="H6">
+        <v>4611.2099743649505</v>
+      </c>
+      <c r="I6">
+        <v>4548.3155441622002</v>
+      </c>
+      <c r="J6">
+        <v>4781.0249359123754</v>
+      </c>
+      <c r="K6">
+        <v>4661.5255185271508</v>
+      </c>
+      <c r="L6">
+        <v>4887.945467257051</v>
+      </c>
+      <c r="M6">
+        <v>4667.8149615474258</v>
+      </c>
+      <c r="N6">
+        <v>4714.9857841994881</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>4936</v>
+      </c>
+      <c r="D7">
+        <v>4206.6254295532644</v>
+      </c>
+      <c r="E7">
+        <v>4775.3579947442895</v>
+      </c>
+      <c r="F7">
+        <v>5028.7932080048513</v>
+      </c>
+      <c r="G7">
+        <v>4904.0711542348899</v>
+      </c>
+      <c r="H7">
+        <v>4437.1117849201537</v>
+      </c>
+      <c r="I7">
+        <v>4540.8805336567621</v>
+      </c>
+      <c r="J7">
+        <v>4804.2935112189207</v>
+      </c>
+      <c r="K7">
+        <v>4468.0428542551044</v>
+      </c>
+      <c r="L7">
+        <v>4893.0956135031338</v>
+      </c>
+      <c r="M7">
+        <v>4731.455831817264</v>
+      </c>
+      <c r="N7">
+        <v>4925.0244592682448</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>5047</v>
+      </c>
+      <c r="D8">
+        <v>4519.0752126836815</v>
+      </c>
+      <c r="E8">
+        <v>5015.7733952049493</v>
+      </c>
+      <c r="F8">
+        <v>4996.2567672080431</v>
+      </c>
+      <c r="G8">
+        <v>4798.1629930394429</v>
+      </c>
+      <c r="H8">
+        <v>4349.2805491105955</v>
+      </c>
+      <c r="I8">
+        <v>4857.6887084300079</v>
+      </c>
+      <c r="J8">
+        <v>4871.3503480278423</v>
+      </c>
+      <c r="K8">
+        <v>4770.839713843774</v>
+      </c>
+      <c r="L8">
+        <v>4800.1146558391338</v>
+      </c>
+      <c r="M8">
+        <v>5082.1299303944315</v>
+      </c>
+      <c r="N8">
+        <v>4925.0210750193346</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>5165</v>
+      </c>
+      <c r="D9">
+        <v>4561.4889393079975</v>
+      </c>
+      <c r="E9">
+        <v>5197.2263187748158</v>
+      </c>
+      <c r="F9">
+        <v>5068.3210436755535</v>
+      </c>
+      <c r="G9">
+        <v>5002.8918510115336</v>
+      </c>
+      <c r="H9">
+        <v>4754.8468519568924</v>
+      </c>
+      <c r="I9">
+        <v>4988.243524295709</v>
+      </c>
+      <c r="J9">
+        <v>5355.4282473057301</v>
+      </c>
+      <c r="K9">
+        <v>4796.8387218755925</v>
+      </c>
+      <c r="L9">
+        <v>4970.6655322367196</v>
+      </c>
+      <c r="M9">
+        <v>5218.7105312913618</v>
+      </c>
+      <c r="N9">
+        <v>5043.9071658158464</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>5507</v>
+      </c>
+      <c r="D10">
+        <v>5232.8221358504534</v>
+      </c>
+      <c r="E10">
+        <v>5895.3337034980568</v>
+      </c>
+      <c r="F10">
+        <v>5296.0155469183792</v>
+      </c>
+      <c r="G10">
+        <v>5760.792892837313</v>
+      </c>
+      <c r="H10">
+        <v>5198.167684619656</v>
+      </c>
+      <c r="I10">
+        <v>5610.9633536923939</v>
+      </c>
+      <c r="J10">
+        <v>5648.675550620027</v>
+      </c>
+      <c r="K10">
+        <v>5132.9357764205079</v>
+      </c>
+      <c r="L10">
+        <v>5297.0347954839908</v>
+      </c>
+      <c r="M10">
+        <v>5457.0568202850272</v>
+      </c>
+      <c r="N10">
+        <v>5613.0018508236171</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>5713</v>
+      </c>
+      <c r="D11">
+        <v>5203.4727961432509</v>
+      </c>
+      <c r="E11">
+        <v>5739.5583677685954</v>
+      </c>
+      <c r="F11">
+        <v>5712.0163567493119</v>
+      </c>
+      <c r="G11">
+        <v>6451.7160812672182</v>
+      </c>
+      <c r="H11">
+        <v>5643.1613292011025</v>
+      </c>
+      <c r="I11">
+        <v>5789.72417355372</v>
+      </c>
+      <c r="J11">
+        <v>5468.0728305785133</v>
+      </c>
+      <c r="K11">
+        <v>5154.2906336088163</v>
+      </c>
+      <c r="L11">
+        <v>5236.9166666666679</v>
+      </c>
+      <c r="M11">
+        <v>5290.0334022038578</v>
+      </c>
+      <c r="N11">
+        <v>5619.5538911845742</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>7927</v>
+      </c>
+      <c r="D12">
+        <v>6425.390506537743</v>
+      </c>
+      <c r="E12">
+        <v>6327.8381496538841</v>
+      </c>
+      <c r="F12">
+        <v>6761.5977365124709</v>
+      </c>
+      <c r="G12">
+        <v>7584.6957477200303</v>
+      </c>
+      <c r="H12">
+        <v>7002.8656191627288</v>
+      </c>
+      <c r="I12">
+        <v>7458.4002856828911</v>
+      </c>
+      <c r="J12">
+        <v>7474.0783430392257</v>
+      </c>
+      <c r="K12">
+        <v>6915.7653005164266</v>
+      </c>
+      <c r="L12">
+        <v>7057.7388199098996</v>
+      </c>
+      <c r="M12">
+        <v>6664.9163828150749</v>
+      </c>
+      <c r="N12">
+        <v>6904.4422590924069</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>